--- a/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>warning</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -100,10 +88,28 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>negative</t>
@@ -112,39 +118,45 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>sharing</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -154,130 +166,145 @@
     <t>support</t>
   </si>
   <si>
-    <t>sharing</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>kind</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>create</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>.</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -635,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -754,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -854,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9333333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -954,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.9242819843342036</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.68</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -1122,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
@@ -1204,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.9014084507042254</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1304,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.8875</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5608465608465608</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C17">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.8867924528301887</v>
+        <v>0.8828125</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4576271186440678</v>
+        <v>0.28</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.88125</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4341085271317829</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C19">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8658536585365854</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L19">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4313725490196079</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0.8620689655172413</v>
@@ -1604,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2909090909090909</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <v>0.8611111111111112</v>
@@ -1654,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2666666666666667</v>
+        <v>0.006725514922236234</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>2363</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.851063829787234</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1731,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2027777777777778</v>
+        <v>0.006077606358111267</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>287</v>
+        <v>2126</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.8421052631578947</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,37 +1781,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1812080536912752</v>
+        <v>0.004834031582339671</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>122</v>
+        <v>3088</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.8372093023255814</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1800,17 +1827,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.003937007874015748</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>0.37</v>
+      </c>
+      <c r="F25">
+        <v>0.63</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4301</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.8253968253968254</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,12 +1873,36 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.002807862013638187</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0.42</v>
+      </c>
+      <c r="F26">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4972</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -1853,7 +1928,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>0.8205128205128205</v>
@@ -1879,16 +1954,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1900,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1926,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1952,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1978,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2004,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2030,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2056,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.7470588235294118</v>
+        <v>0.717687074829932</v>
       </c>
       <c r="L35">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="M35">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2079,24 +2154,24 @@
         <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.7368421052631579</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2108,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.7154811715481172</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L37">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2134,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2160,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.7021276595744681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2186,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2212,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.6983050847457627</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L41">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="M41">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2238,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.6818181818181818</v>
+        <v>0.65</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2264,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.6615384615384615</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2290,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.6521739130434783</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2316,12 +2391,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K45">
         <v>0.6428571428571429</v>
@@ -2347,16 +2422,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.6142857142857143</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2368,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.5757575757575758</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2394,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.5617977528089888</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2420,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.5555555555555556</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2446,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2472,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.5476190476190477</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2498,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.5294117647058824</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2524,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.4358974358974359</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2550,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.3835616438356164</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2576,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.3823529411764706</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2602,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.3777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2628,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.296875</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2654,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.2203389830508475</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2680,33 +2755,215 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.002604688439190543</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L59">
         <v>13</v>
       </c>
       <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>18</v>
       </c>
-      <c r="N59">
-        <v>0.72</v>
-      </c>
-      <c r="O59">
-        <v>0.28</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>4978</v>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K60">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L60">
+        <v>29</v>
+      </c>
+      <c r="M60">
+        <v>29</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L61">
+        <v>13</v>
+      </c>
+      <c r="M61">
+        <v>13</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K63">
+        <v>0.02925045703839122</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>16</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="L64">
+        <v>22</v>
+      </c>
+      <c r="M64">
+        <v>23</v>
+      </c>
+      <c r="N64">
+        <v>0.96</v>
+      </c>
+      <c r="O64">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65">
+        <v>0.006568144499178982</v>
+      </c>
+      <c r="L65">
+        <v>16</v>
+      </c>
+      <c r="M65">
+        <v>25</v>
+      </c>
+      <c r="N65">
+        <v>0.64</v>
+      </c>
+      <c r="O65">
+        <v>0.36</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K66">
+        <v>0.004076513013483851</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <v>25</v>
+      </c>
+      <c r="N66">
+        <v>0.52</v>
+      </c>
+      <c r="O66">
+        <v>0.48</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
